--- a/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
+++ b/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005679</t>
+          <t>009774</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通资管鑫盛6个月定期开放混合</t>
+          <t>财通资管优选回报一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.15</t>
+          <t>18.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9741</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008277</t>
+          <t>005682</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通资管行业精选混合</t>
+          <t>财通资管消费精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.95</t>
+          <t>14.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8209</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009774</t>
+          <t>008277</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通资管优选回报一年持有期混合</t>
+          <t>财通资管行业精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50.05</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>35.57</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.95</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004889</t>
+          <t>005679</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通资管鑫逸回报混合C</t>
+          <t>财通资管鑫盛6个月定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>35.57</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005682</t>
+          <t>011020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通资管消费精选灵活配置混合A</t>
+          <t>财通资管消费精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.65</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>5.48</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011020</t>
+          <t>004889</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通资管消费精选灵活配置混合C</t>
+          <t>财通资管鑫逸回报混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005682</t>
+          <t>009774</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通资管消费精选灵活配置混合A</t>
+          <t>财通资管优选回报一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>16.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -762,25 +862,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011020</t>
+          <t>005682</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通资管消费精选灵活配置混合C</t>
+          <t>财通资管消费精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.93</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.98</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4575</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005876</t>
+          <t>008277</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达鑫转增利混合A</t>
+          <t>财通资管行业精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -818,25 +938,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005877</t>
+          <t>005876</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达鑫转增利混合C</t>
+          <t>易方达鑫转增利混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>27.15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.37</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009774</t>
+          <t>005877</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通资管优选回报一年持有期混合</t>
+          <t>易方达鑫转增利混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.57</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008277</t>
+          <t>011020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通资管行业精选混合</t>
+          <t>财通资管消费精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
+++ b/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0194</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8343</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8091</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6656</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4216</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
+++ b/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1790,4 +1791,1314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6105</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4232</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
+++ b/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3101,4 +3102,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
+++ b/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3110,7 +3111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3121,17 +3122,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3141,14 +3162,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.87</v>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3157,14 +3200,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.01</v>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3173,14 +3238,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.61</v>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4864</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3189,13 +3276,1405 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1551</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0580</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8755</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7267</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4598</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>45.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3739</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
+++ b/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4573,7 +4574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4584,17 +4585,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4604,14 +4625,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.84</v>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4620,14 +4663,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.87</v>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5439</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4636,14 +4701,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.01</v>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2874</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4652,14 +4739,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.61</v>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3641</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4668,13 +4777,1875 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9023</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4416</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3851</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3815</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3283</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2841</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
+++ b/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6528,7 +6529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6539,17 +6540,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6559,14 +6580,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.42</v>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -6575,14 +6618,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.84</v>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6941</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6591,14 +6656,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.87</v>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0467</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6607,14 +6694,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.01</v>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -6623,14 +6732,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.61</v>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1760</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -6639,13 +6770,2609 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0969</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8300</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7622</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5738</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000810</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5339</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5111</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3857</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3281</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2970</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000812</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015152</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
+++ b/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="D2" t="n">
-        <v>26.59</v>
+        <v>35.19</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>19.42</v>
+        <v>26.59</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>18.84</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>7.87</v>
+        <v>18.84</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>7.01</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>1.61</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.11</v>
       </c>
     </row>
@@ -600,6 +617,5186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0434</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013812</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2900</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6089</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1291</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0167</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9148</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013813</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9115</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8168</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7795</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013534</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7181</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6619</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5636</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河行业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5344</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5218</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4938</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4934</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4887</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商企业优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4530</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4342</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4185</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3721</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3350</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3017</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014472</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013665</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商行業領先混合型證券投資基金 H</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014119</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011629</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银河核心优势混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>74.53</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013535</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014473</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013666</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015683</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商企业优选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>015005</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>015361</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014120</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>金鹰时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博时先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>39.66</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>015004</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>012997</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>015670</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>银河行业混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>33.42</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>015152</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>33.42</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3309,7 +8506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5263,7 +10460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6725,7 +11922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8035,7 +13232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8775,7 +13972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9059,7 +14256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
+++ b/数据整理/stocks/A股/科创板/688516-奥特维.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="D2" t="n">
-        <v>35.19</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="D3" t="n">
-        <v>26.59</v>
+        <v>35.19</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>19.42</v>
+        <v>26.59</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>18.84</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>7.87</v>
+        <v>18.84</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>7.01</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>1.61</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.11</v>
       </c>
     </row>
@@ -616,7 +633,4103 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9741</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8209</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005679</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管鑫盛6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013812</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6161</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8049</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7098</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2805</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6473</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6469</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013813</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6394</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013534</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6074</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5154</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4621</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4408</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商企业优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4017</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3982</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3312</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015683</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2666</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014472</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商行業領先混合型證券投資基金 H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015005</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>74.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012102</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013535</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014473</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015034</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰信优势领航混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>69.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商企业优选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013470</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>泰信低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012103</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国寿安保低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015004</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013469</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泰信低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>62.88</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>银河量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>70.26</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012997</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014937</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>70.26</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5796,7 +9909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8506,7 +12619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10460,7 +14573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11922,7 +16035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13232,7 +17345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13972,7 +18085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14254,326 +18367,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009774</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>财通资管优选回报一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>50.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9741</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005682</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>财通资管消费精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.98</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8209</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008277</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>财通资管行业精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.95</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2142</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004888</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通资管鑫逸回报混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>35.57</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0688</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005679</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通资管鑫盛6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>32.15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011020</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通资管消费精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004889</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通资管鑫逸回报混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>35.57</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>